--- a/medicine/Pharmacie/Fluticasone/Fluticasone.xlsx
+++ b/medicine/Pharmacie/Fluticasone/Fluticasone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La fluticasone est un anti-inflammatoire stéroïdien de la famille des glucocorticoïdes.
@@ -514,21 +526,12 @@
           <t>Propionate de fluticasone</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le propionate de fluticasone est un ester dérivé de la fluticasone. Plus précisément, il s'agit de l'ester issu de la réaction entre la fluticasone et l’acide propanoïque.
 Il s'agit d'une molécule très couramment utilisée en pneumologie, en oto-rhino-laryngologie ainsi qu'en dermatologie.
-Pneumologie
-Le propionate de fluticasone est utilisé ici dans le traitement de l'asthme et de la BPCO.
-Indiqués dans l'asthme, les noms commerciaux utilisés sont Flixotide (France) et Flovent (États-Unis).
-Le propionate de fluticasone est aussi utilisé en association avec un béta2 mimétique pour traiter l'asthme persistant et la BPCO.
-Les noms commerciaux utilisés sont Sérétide (France) et Advair (États-Unis).
-Oto-rhino-laryngologie
-Le propionate de fluticasone est utilisé ici pour traiter la rhinite allergique.
-Les noms commerciaux utilisés sont Flixonase (France) et Flonase (États-Unis).
-Dermatologie
-Le propionate de fluticasone est utilisé ici pour traiter l'eczéma, la dermatite atopique, lichen et le psoriasis et est utilisé sous forme de crème et de pommade.
-Le nom commercial est Flixovate.
 </t>
         </is>
       </c>
@@ -554,14 +557,167 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Propionate de fluticasone</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pneumologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le propionate de fluticasone est utilisé ici dans le traitement de l'asthme et de la BPCO.
+Indiqués dans l'asthme, les noms commerciaux utilisés sont Flixotide (France) et Flovent (États-Unis).
+Le propionate de fluticasone est aussi utilisé en association avec un béta2 mimétique pour traiter l'asthme persistant et la BPCO.
+Les noms commerciaux utilisés sont Sérétide (France) et Advair (États-Unis).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fluticasone</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fluticasone</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Propionate de fluticasone</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Oto-rhino-laryngologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le propionate de fluticasone est utilisé ici pour traiter la rhinite allergique.
+Les noms commerciaux utilisés sont Flixonase (France) et Flonase (États-Unis).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fluticasone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fluticasone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Propionate de fluticasone</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dermatologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le propionate de fluticasone est utilisé ici pour traiter l'eczéma, la dermatite atopique, lichen et le psoriasis et est utilisé sous forme de crème et de pommade.
+Le nom commercial est Flixovate.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fluticasone</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fluticasone</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Furoate de fluticasone</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le furoate de fluticasone est un ester dérivé de la fluticasone. Plus précisément, il s'agit de l'ester issu de la réaction entre la fluticasone et l’acide 2-furoïque.
-Oto-rhino-laryngologie
-Il s'agit d'une molécule indiquée dans le traitement des symptômes de la rhinite allergique et est utilisé sous forme de suspension pour pulvérisation nasale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fluticasone</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fluticasone</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Furoate de fluticasone</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Oto-rhino-laryngologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une molécule indiquée dans le traitement des symptômes de la rhinite allergique et est utilisé sous forme de suspension pour pulvérisation nasale.
 Les noms commerciaux utilisés sont Avamys (France, Canada), Veramyst (États-Unis), Furamist (Inde) et Ennhale (Inde).
 </t>
         </is>
